--- a/dbInittool/excels/Material.xlsx
+++ b/dbInittool/excels/Material.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\Reader\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3230F0-C4DF-44BD-B39C-7BA8E02552CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452BF99F-BF4F-4E6E-8C90-3BA70568E319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="-6435" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6555" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>recipeId</t>
-  </si>
-  <si>
-    <t>badthId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mealStatusId</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>material name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pass/photo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pass/photo2</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>pass2Photo</t>
-  </si>
-  <si>
-    <t>excel</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -374,40 +381,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.4140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/dbInittool/excels/Material.xlsx
+++ b/dbInittool/excels/Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452BF99F-BF4F-4E6E-8C90-3BA70568E319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E080BB-9E22-4E46-B67A-00EDA45D801C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6555" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -49,6 +49,9 @@
   <si>
     <t>pass2Photo</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>colorId</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -403,7 +406,9 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
@@ -415,6 +420,9 @@
       <c r="C2">
         <v>5</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -425,6 +433,9 @@
       </c>
       <c r="C3">
         <v>10</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/dbInittool/excels/Material.xlsx
+++ b/dbInittool/excels/Material.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs20502\Desktop\TF\Hackathon\PickNic\dbInittool\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nokita\chasaji\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E080BB-9E22-4E46-B67A-00EDA45D801C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28882877-304A-40C3-80FA-5575ACE0A6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6555" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -52,6 +52,44 @@
   </si>
   <si>
     <t>colorId</t>
+  </si>
+  <si>
+    <t>じゃがいも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>potate.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にんじん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carrot.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉ねぎ</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onion.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牛肉</t>
+    <rPh sb="0" eb="2">
+      <t>ギュウニク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beef.jpg</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -384,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -438,6 +476,62 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dbInittool/excels/Material.xlsx
+++ b/dbInittool/excels/Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nokita\chasaji\PickNic\dbInittool\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28882877-304A-40C3-80FA-5575ACE0A6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1785D8-7C0C-4FD1-90BD-11B2BDFF5F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -35,18 +35,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>material name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pass/photo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pass/photo2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>pass2Photo</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -58,15 +46,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>potate.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>にんじん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>carrot.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -77,10 +57,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>onion.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>牛肉</t>
     <rPh sb="0" eb="2">
       <t>ギュウニク</t>
@@ -88,7 +64,94 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>beef.jpg</t>
+    <t>beef</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豚肉</t>
+    <rPh sb="0" eb="2">
+      <t>ブタニク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キウイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パイナップル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さくらんぼ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たまご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carrot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kiui</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>men</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mikan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>negi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nori</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>potato</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sakuranbo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tamago</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -422,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -439,38 +502,38 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -478,13 +541,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -492,16 +555,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
         <v>3</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -509,27 +572,125 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="D7">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
